--- a/iselUssSyncV2/OutputWSL/20220517_1143_D60L474W90Q8.9U0.19H60.5G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1143_D60L474W90Q8.9U0.19H60.5G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>61.420717131474071</v>
+        <v>62.478543218430595</v>
       </c>
       <c r="F2" s="0">
-        <v>61.431752988047819</v>
+        <v>62.487326110577463</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>61.870438247011926</v>
+        <v>62.882589641434237</v>
       </c>
       <c r="F3" s="0">
-        <v>63.503545816732981</v>
+        <v>64.239203187250908</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>60.612738095238136</v>
+        <v>59.980595238095276</v>
       </c>
       <c r="F4" s="0">
-        <v>64.743888888888918</v>
+        <v>63.22519841269844</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>59.724183266932357</v>
+        <v>59.044860557769013</v>
       </c>
       <c r="F5" s="0">
-        <v>64.796653386454196</v>
+        <v>63.466414342629491</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>58.09980158730157</v>
+        <v>57.298730158730145</v>
       </c>
       <c r="F6" s="0">
-        <v>65.165595238095221</v>
+        <v>62.748690476190461</v>
       </c>
     </row>
     <row r="7">
@@ -222,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>55.159999999999968</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>54.962420634920605</v>
+      </c>
+      <c r="F7" s="0">
+        <v>64.132698412698389</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -240,9 +242,11 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>49.568326693227093</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>49.367810820211218</v>
+      </c>
+      <c r="F8" s="0">
+        <v>65.262868525896366</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -258,9 +262,11 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>46.808214285714278</v>
-      </c>
-      <c r="F9" s="0"/>
+        <v>45.982222222222212</v>
+      </c>
+      <c r="F9" s="0">
+        <v>63.544523809523803</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -276,10 +282,10 @@
         <v>-106</v>
       </c>
       <c r="E10" s="0">
-        <v>42.204285714285703</v>
+        <v>41.125719977233906</v>
       </c>
       <c r="F10" s="0">
-        <v>34.494206349206344</v>
+        <v>31.797552962752164</v>
       </c>
     </row>
     <row r="11">
@@ -296,10 +302,10 @@
         <v>-106</v>
       </c>
       <c r="E11" s="0">
-        <v>37.710753968253968</v>
+        <v>36.642865522038832</v>
       </c>
       <c r="F11" s="0">
-        <v>34.060873015873014</v>
+        <v>31.371470625434767</v>
       </c>
     </row>
     <row r="12">
@@ -316,10 +322,10 @@
         <v>-106</v>
       </c>
       <c r="E12" s="0">
-        <v>37.505258964143422</v>
+        <v>37.32876494023904</v>
       </c>
       <c r="F12" s="0">
-        <v>33.953864541832672</v>
+        <v>31.300239043824703</v>
       </c>
     </row>
     <row r="13">
@@ -336,10 +342,10 @@
         <v>-106</v>
       </c>
       <c r="E13" s="0">
-        <v>38.11666666666666</v>
+        <v>37.040952380952376</v>
       </c>
       <c r="F13" s="0">
-        <v>35.449404761904752</v>
+        <v>32.755515873015867</v>
       </c>
     </row>
     <row r="14">
@@ -356,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>37.516309523809525</v>
+        <v>36.470373268829448</v>
       </c>
       <c r="F14" s="0">
-        <v>35.399999999999999</v>
+        <v>32.732589641434259</v>
       </c>
     </row>
     <row r="15">
@@ -376,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>37.825816733067718</v>
+        <v>36.774626256877241</v>
       </c>
       <c r="F15" s="0">
-        <v>36.561314741035851</v>
+        <v>33.899965534686643</v>
       </c>
     </row>
     <row r="16">
@@ -396,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>40.021952191235059</v>
+        <v>38.989134730917598</v>
       </c>
       <c r="F16" s="0">
-        <v>37.54306772908366</v>
+        <v>35.528901062416992</v>
       </c>
     </row>
     <row r="17">
@@ -416,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>43.234682539682538</v>
+        <v>42.889801587301584</v>
       </c>
       <c r="F17" s="0">
-        <v>37.584206349206355</v>
+        <v>35.019166666666671</v>
       </c>
     </row>
     <row r="18">
@@ -436,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>44.7361111111111</v>
+        <v>43.678373015873007</v>
       </c>
       <c r="F18" s="0">
-        <v>38.013095238095239</v>
+        <v>35.331944444444446</v>
       </c>
     </row>
     <row r="19">
@@ -456,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>43.643904382470133</v>
+        <v>42.603745652311403</v>
       </c>
       <c r="F19" s="0">
-        <v>37.616494023904387</v>
+        <v>34.959232119142477</v>
       </c>
     </row>
     <row r="20">
@@ -476,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>33.135219123505976</v>
+        <v>32.048155631442484</v>
       </c>
       <c r="F20" s="0">
-        <v>37.796772908366542</v>
+        <v>35.091495130588768</v>
       </c>
     </row>
     <row r="21">
@@ -496,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>33.858015873015873</v>
+        <v>32.810844558274837</v>
       </c>
       <c r="F21" s="0">
-        <v>38.030634920634924</v>
+        <v>35.38904129513692</v>
       </c>
     </row>
     <row r="22">
@@ -516,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>37.135737051792837</v>
+        <v>35.658356099411883</v>
       </c>
       <c r="F22" s="0">
-        <v>37.973067729083674</v>
+        <v>35.691639157655104</v>
       </c>
     </row>
     <row r="23">
@@ -536,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>38.7713545816733</v>
+        <v>37.254302788844619</v>
       </c>
       <c r="F23" s="0">
-        <v>38.440438247011947</v>
+        <v>35.740956175298798</v>
       </c>
     </row>
     <row r="24">
@@ -556,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>35.288486055776893</v>
+        <v>33.803147410358569</v>
       </c>
       <c r="F24" s="0">
-        <v>38.21494023904382</v>
+        <v>35.094143426294814</v>
       </c>
     </row>
     <row r="25">
@@ -576,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>37.233134920634924</v>
+        <v>36.398412698412699</v>
       </c>
       <c r="F25" s="0">
-        <v>38.616428571428578</v>
+        <v>36.298611111111114</v>
       </c>
     </row>
     <row r="26">
@@ -596,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>35.232936507936522</v>
+        <v>34.60472933662178</v>
       </c>
       <c r="F26" s="0">
-        <v>38.077896825396813</v>
+        <v>36.392279295516332</v>
       </c>
     </row>
     <row r="27">
@@ -616,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>37.274880952380954</v>
+        <v>36.596275374691707</v>
       </c>
       <c r="F27" s="0">
-        <v>38.521428571428586</v>
+        <v>37.029715424018228</v>
       </c>
     </row>
     <row r="28">
@@ -636,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>37.602500000000006</v>
+        <v>37.447261904761909</v>
       </c>
       <c r="F28" s="0">
-        <v>38.452103174603167</v>
+        <v>37.046309523809512</v>
       </c>
     </row>
     <row r="29">
@@ -656,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>35.446111111111129</v>
+        <v>34.786547619047639</v>
       </c>
       <c r="F29" s="0">
-        <v>38.237936507936489</v>
+        <v>36.774166666666652</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>37.551832669322707</v>
+        <v>37.364927907417943</v>
       </c>
       <c r="F30" s="0">
-        <v>38.136892430278877</v>
+        <v>37.543836874723318</v>
       </c>
     </row>
   </sheetData>
